--- a/iQRM_Class03.xlsx
+++ b/iQRM_Class03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidromoff/Library/CloudStorage/GoogleDrive-davethemovie@gmail.com/My Drive/Columbia/Classes/iQRM/ClassFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidromoff/Downloads/temp123/iQRM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E20E03E-986E-C24C-A210-3258BC92B4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5170B4AC-3A5A-E74F-AA0B-E555094B4A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16060" tabRatio="811" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11500" yWindow="-21600" windowWidth="51200" windowHeight="21600" tabRatio="811" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Today" sheetId="14" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="344">
   <si>
     <t>Calculate geometric series</t>
   </si>
@@ -681,12 +681,6 @@
     </r>
   </si>
   <si>
-    <t>For v greater than 0 and less than 1, what is the Sum(v^i) for i = 1 to 100?</t>
-  </si>
-  <si>
-    <t>For v greater than 0 and less than 1, what is the Sum(v^i) for i = 1 to infinity?</t>
-  </si>
-  <si>
     <t>Let v = 1/(1+r).  State the answer to question 2 in terms of r.</t>
   </si>
   <si>
@@ -1397,6 +1391,57 @@
       <t xml:space="preserve"> + … </t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>For v greater than 0 and less than 1, what is the Sum(v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) for i = 1 to 100?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>For v greater than 0 and less than 1, what is the Sum(v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) for i = 1 to infinity?</t>
+    </r>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
 </sst>
 </file>
 
@@ -1409,7 +1454,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1530,6 +1575,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1743,7 +1801,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1859,6 +1917,8 @@
     <xf numFmtId="166" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="8" builtinId="3"/>
@@ -2497,22 +2557,22 @@
     </row>
     <row r="13" spans="2:4">
       <c r="C13" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="C14" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="C15" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="C16" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -2593,40 +2653,40 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="C7" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="D8" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="C9" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="D10" s="29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="53" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -2750,7 +2810,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="5">
@@ -2762,7 +2822,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D6" s="5">
         <v>4</v>
@@ -2773,7 +2833,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -2784,7 +2844,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -2795,7 +2855,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -2806,7 +2866,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -2817,7 +2877,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -2842,7 +2902,8 @@
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="142" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
@@ -2852,28 +2913,28 @@
     </row>
     <row r="4" spans="2:3">
       <c r="C4" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="C5" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="29">
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="30">
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>184</v>
+      <c r="C7" s="65" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -2881,7 +2942,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2910,7 +2971,7 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -2920,12 +2981,12 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2949,7 +3010,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -2964,27 +3025,27 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3004,9 +3065,7 @@
   </sheetPr>
   <dimension ref="A1:AL24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
   <cols>
@@ -3015,94 +3074,94 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="27" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="C13" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="C14" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="C15" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="30" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="2:38">
       <c r="B17" s="30" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="2:38">
       <c r="D18" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="2:38">
       <c r="B19" s="30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="2:38">
@@ -3322,7 +3381,7 @@
     <row r="22" spans="2:38">
       <c r="B22" s="30"/>
       <c r="D22" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E22" s="52"/>
       <c r="F22" s="52"/>
@@ -3361,10 +3420,10 @@
     </row>
     <row r="23" spans="2:38">
       <c r="B23" s="30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
@@ -3403,7 +3462,7 @@
     </row>
     <row r="24" spans="2:38">
       <c r="D24" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3436,34 +3495,34 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="B2" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="B3" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="B4" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -3471,12 +3530,12 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="B7" s="57" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C7" s="58">
         <v>0.05</v>
@@ -3484,7 +3543,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="B10" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ref="C10:AA10" si="0">80+C11</f>
@@ -3589,7 +3648,7 @@
     </row>
     <row r="11" spans="1:27">
       <c r="B11" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -3669,7 +3728,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="B12" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C12" s="59">
         <v>0.15</v>
@@ -3773,7 +3832,7 @@
     </row>
     <row r="13" spans="1:27">
       <c r="B13" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C13" s="59">
         <f>1-C12</f>
@@ -3878,7 +3937,7 @@
     </row>
     <row r="14" spans="1:27">
       <c r="B14" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C14" s="59">
         <f t="shared" ref="C14:AA14" si="3">(1+r_)^(-t)</f>
@@ -4063,7 +4122,7 @@
     </row>
     <row r="17" spans="2:27">
       <c r="B17" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C17" s="60">
         <f t="shared" ref="C17:AA17" si="4">C_*PV*P_S</f>
@@ -4168,7 +4227,7 @@
     </row>
     <row r="18" spans="2:27">
       <c r="B18" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C18" s="60">
         <f>SUM(PVCF)</f>
@@ -4199,12 +4258,12 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -4281,9 +4340,7 @@
   </sheetPr>
   <dimension ref="B2:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26"/>
   <cols>
@@ -4292,18 +4349,18 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" s="1">
         <f t="shared" ref="C7:C17" ca="1" si="0">_xlfn.NORM.INV(RAND(),8%,15%)</f>
-        <v>-0.14702530798506952</v>
+        <v>4.9476474292602254E-2</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -4312,7 +4369,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.3648678640779578E-2</v>
+        <v>0.1545327176853262</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -4321,7 +4378,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0210383781303143E-2</v>
+        <v>0.20466086480309742</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -4330,7 +4387,7 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16756774089923948</v>
+        <v>0.3279680538944022</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -4339,7 +4396,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.69453256952299E-3</v>
+        <v>-5.5825437671597547E-2</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -4348,7 +4405,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37690775280859423</v>
+        <v>9.6113741133859371E-2</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -4357,7 +4414,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16077903751829709</v>
+        <v>0.1156558267070277</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -4366,7 +4423,7 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9712240685158783E-2</v>
+        <v>4.5857058917331744E-2</v>
       </c>
     </row>
     <row r="15" spans="2:3">
@@ -4375,7 +4432,7 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2092203852430062E-2</v>
+        <v>-3.6511109904568129E-3</v>
       </c>
     </row>
     <row r="16" spans="2:3">
@@ -4384,7 +4441,7 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.11984056180747267</v>
+        <v>0.25939090293579448</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -4393,7 +4450,7 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.14035756214381534</v>
+        <v>0.17464533196676357</v>
       </c>
     </row>
   </sheetData>
@@ -4408,9 +4465,7 @@
   </sheetPr>
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26"/>
   <cols>
@@ -4419,39 +4474,39 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="C6" s="1">
         <f t="shared" ref="C6:G16" ca="1" si="0">_xlfn.NORM.INV(RAND(),8%,15%)</f>
-        <v>0.10266604166304491</v>
+        <v>-0.14782664276165963</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.7758577320038634E-2</v>
+        <v>0.10620327581211508</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.5665623318751582E-2</v>
+        <v>0.13908910071974115</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6980057968080791E-2</v>
+        <v>0.23952261302108058</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13295647522797371</v>
+        <v>2.0655881244127282E-2</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -4460,23 +4515,23 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11848696664584782</v>
+        <v>0.20278926173849018</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1262816324736287</v>
+        <v>0.21143876031062492</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4687873494383877E-2</v>
+        <v>8.8135802304972144E-2</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1392940121026674E-2</v>
+        <v>0.34335484087282503</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19903249500182063</v>
+        <v>6.6053566048772619E-2</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -4485,23 +4540,23 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7430687917287208E-2</v>
+        <v>-3.7405114643133827E-2</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3343999173271141</v>
+        <v>-5.8107467321706283E-2</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.17102741827369777</v>
+        <v>-1.2503145263571713E-2</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3435428656728342E-2</v>
+        <v>7.3402332624450034E-2</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34753059158944283</v>
+        <v>0.26373968142191478</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -4510,23 +4565,23 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26198528661339371</v>
+        <v>-0.17565083903577994</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13978054205949281</v>
+        <v>0.10395004647486331</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30697544533762466</v>
+        <v>0.2413406022916797</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.18676659918475214</v>
+        <v>0.21602908724055625</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1153259181249674</v>
+        <v>-0.16455837734681567</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -4535,23 +4590,23 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1405275614046766E-2</v>
+        <v>0.13707995756789235</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.8403160507194753E-2</v>
+        <v>8.5012837545317979E-2</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.19905944347864946</v>
+        <v>0.26691641965713531</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14448239571550725</v>
+        <v>-8.6933602841491861E-2</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.0603076821330837E-2</v>
+        <v>2.2909214845796E-3</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -4560,23 +4615,23 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25161037186722823</v>
+        <v>7.0228274942020663E-2</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.21285865022736211</v>
+        <v>0.21303024798758169</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10430751699720558</v>
+        <v>6.6268216149452441E-2</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.19485729237372623</v>
+        <v>-0.20736344291751502</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11057932389573541</v>
+        <v>-0.19972939461171646</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -4585,23 +4640,23 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9733299622637809E-2</v>
+        <v>0.27148008255475231</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8206890391032154E-2</v>
+        <v>1.1802040730611696E-2</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51731735431774117</v>
+        <v>0.31419434096198523</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.14743107123344901</v>
+        <v>0.15941083540425993</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24812018852843509</v>
+        <v>0.16668319263552225</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -4610,23 +4665,23 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18049108756733129</v>
+        <v>0.18506500655989577</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.2517895417594268</v>
+        <v>-5.7570280141190019E-2</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8124221589767813E-2</v>
+        <v>4.4760288592473253E-2</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20762506843247358</v>
+        <v>7.2598742406022432E-2</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7702650453851636E-3</v>
+        <v>2.4651082950055934E-2</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -4635,23 +4690,23 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.8407981372780456E-2</v>
+        <v>0.13028682017077317</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18595405534498255</v>
+        <v>-2.3984937224335812E-2</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8990089291925805E-2</v>
+        <v>-4.9219399736607647E-2</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.0542494198344154E-2</v>
+        <v>0.10601820867452119</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0056570513787564E-3</v>
+        <v>0.10098906817556773</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -4660,23 +4715,23 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17808039653548874</v>
+        <v>7.8002689214016818E-2</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14745357148044302</v>
+        <v>0.10849850400440418</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.283526777827277E-2</v>
+        <v>-0.10504885303702076</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3336955468019005E-2</v>
+        <v>9.293273563143914E-2</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2832265633679722</v>
+        <v>-8.099164706571009E-2</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -4685,23 +4740,23 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.1203257452801552</v>
+        <v>0.25610063834097574</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1094080817071902</v>
+        <v>-9.9569441924846472E-2</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8983919870145164E-2</v>
+        <v>4.9164487061640692E-2</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0967010163658302E-2</v>
+        <v>0.41226362419494755</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.19557700992465082</v>
+        <v>-0.11466519990376618</v>
       </c>
     </row>
   </sheetData>
@@ -4714,7 +4769,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B2:E20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4726,15 +4781,20 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="1" spans="1:5">
+      <c r="A1" s="29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="B2" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:5">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="1:5">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>163</v>
@@ -4743,16 +4803,16 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="1:5">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>165</v>
@@ -4761,7 +4821,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="1:5">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>177</v>
@@ -4770,34 +4830,34 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="1:5">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="2:5" ht="29">
+    <row r="9" spans="1:5" ht="29">
       <c r="C9" s="1" t="s">
         <v>163</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="29">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29">
       <c r="C10" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="29">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29">
       <c r="C11" s="1" t="s">
         <v>165</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="29">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29">
       <c r="C12" s="1" t="s">
         <v>177</v>
       </c>
@@ -4805,13 +4865,13 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="1:5">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="1:5">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="1:5">
       <c r="B16" s="1"/>
     </row>
     <row r="18" spans="3:3">
@@ -4824,6 +4884,9 @@
       <c r="C20" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{14A49A73-5291-BD4F-BABD-6FC9C1BB6B35}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4835,9 +4898,7 @@
   </sheetPr>
   <dimension ref="B2:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26"/>
   <cols>
@@ -4848,64 +4909,64 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="C13" s="1">
         <f t="shared" ref="C13:G23" ca="1" si="0">_xlfn.NORM.INV(RAND(),8%,15%)</f>
-        <v>0.29908210827426057</v>
+        <v>-0.16269949715560378</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11539428906223372</v>
+        <v>-0.16099421349713033</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4395137720966943E-2</v>
+        <v>6.1488915576483477E-2</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26556102069666743</v>
+        <v>0.18430758472116548</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6007326339887809E-2</v>
+        <v>4.2244596411628386E-2</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -4914,23 +4975,23 @@
       </c>
       <c r="C14" s="46">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0580494341047992E-2</v>
+        <v>0.34137504704903587</v>
       </c>
       <c r="D14" s="46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1138122039175527</v>
+        <v>2.9044362280868381E-2</v>
       </c>
       <c r="E14" s="46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10018052312146457</v>
+        <v>-2.9947506607289065E-4</v>
       </c>
       <c r="F14" s="46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17125784853140469</v>
+        <v>0.147642946068409</v>
       </c>
       <c r="G14" s="46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20097890889416903</v>
+        <v>2.8563365536788642E-2</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -4939,23 +5000,23 @@
       </c>
       <c r="C15" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6671994450968813E-2</v>
+        <v>9.203493058649552E-2</v>
       </c>
       <c r="D15" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16182695628502111</v>
+        <v>-0.18600451902092346</v>
       </c>
       <c r="E15" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.5840115968275395E-2</v>
+        <v>0.2721357124147516</v>
       </c>
       <c r="F15" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1352756408877597</v>
+        <v>-4.7566957655627365E-2</v>
       </c>
       <c r="G15" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13837274061141608</v>
+        <v>0.15886292168858646</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -4964,23 +5025,23 @@
       </c>
       <c r="C16" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15023035212803379</v>
+        <v>0.23371347909209128</v>
       </c>
       <c r="D16" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20214819466852801</v>
+        <v>0.11728219027520179</v>
       </c>
       <c r="E16" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2441596649227278E-2</v>
+        <v>0.39132213656377718</v>
       </c>
       <c r="F16" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36184410263471362</v>
+        <v>6.6422777399498395E-2</v>
       </c>
       <c r="G16" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.6462450105131942E-2</v>
+        <v>2.3499736660546132E-2</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -4989,23 +5050,23 @@
       </c>
       <c r="C17" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1188246518367623E-2</v>
+        <v>7.0327034121584142E-2</v>
       </c>
       <c r="D17" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31511948136473306</v>
+        <v>8.9550440525746206E-2</v>
       </c>
       <c r="E17" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18905114758672661</v>
+        <v>0.23486362391838378</v>
       </c>
       <c r="F17" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26421469282105992</v>
+        <v>-5.5377480941642646E-2</v>
       </c>
       <c r="G17" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16424263928434002</v>
+        <v>-2.1930104540285655E-2</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -5014,23 +5075,23 @@
       </c>
       <c r="C18" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24091663516080802</v>
+        <v>-4.5974748740121266E-2</v>
       </c>
       <c r="D18" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.20782321988209912</v>
+        <v>2.4901453794050177E-2</v>
       </c>
       <c r="E18" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.10785892673788448</v>
+        <v>0.14102756177112849</v>
       </c>
       <c r="F18" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11349209926240571</v>
+        <v>-3.7896723198671683E-2</v>
       </c>
       <c r="G18" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5847700068228972E-2</v>
+        <v>2.5014380055833896E-3</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -5039,23 +5100,23 @@
       </c>
       <c r="C19" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.23595262921498628</v>
+        <v>7.8980150965700449E-2</v>
       </c>
       <c r="D19" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17943475220035382</v>
+        <v>0.12350572285391698</v>
       </c>
       <c r="E19" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.19282370908660268</v>
+        <v>-0.11738769358336983</v>
       </c>
       <c r="F19" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9348848725036239E-2</v>
+        <v>-2.8538880281880036E-2</v>
       </c>
       <c r="G19" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1119103588471652E-2</v>
+        <v>-5.4816505662279733E-2</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -5064,23 +5125,23 @@
       </c>
       <c r="C20" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2279493168826201</v>
+        <v>0.18404166781546494</v>
       </c>
       <c r="D20" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6952447909377289E-2</v>
+        <v>0.18365835371835632</v>
       </c>
       <c r="E20" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18153904539745702</v>
+        <v>-2.3844572976501999E-2</v>
       </c>
       <c r="F20" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19096927911439571</v>
+        <v>-0.10586410970987024</v>
       </c>
       <c r="G20" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8738063252635989E-2</v>
+        <v>0.18390554495011413</v>
       </c>
     </row>
     <row r="21" spans="2:7">
@@ -5089,23 +5150,23 @@
       </c>
       <c r="C21" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1681912907843191</v>
+        <v>0.12247120602880981</v>
       </c>
       <c r="D21" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.26834844972983041</v>
+        <v>1.6473866353821823E-2</v>
       </c>
       <c r="E21" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11986517655441037</v>
+        <v>6.5943903815007254E-3</v>
       </c>
       <c r="F21" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11930069720391079</v>
+        <v>0.25477187334177864</v>
       </c>
       <c r="G21" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19438891250926665</v>
+        <v>0.23200824262986253</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -5114,23 +5175,23 @@
       </c>
       <c r="C22" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8938173547958521E-2</v>
+        <v>-0.10103280620333728</v>
       </c>
       <c r="D22" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13144920251262268</v>
+        <v>-1.9719091687008847E-2</v>
       </c>
       <c r="E22" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9507963286132539E-2</v>
+        <v>0.27353933871581992</v>
       </c>
       <c r="F22" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1104040715990494E-2</v>
+        <v>0.22086650030933408</v>
       </c>
       <c r="G22" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.056477188468211E-2</v>
+        <v>-0.1077704723865119</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -5139,40 +5200,40 @@
       </c>
       <c r="C23" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6756790579450657E-3</v>
+        <v>0.11639074832528608</v>
       </c>
       <c r="D23" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.10284564315781285</v>
+        <v>-7.4762443142236887E-2</v>
       </c>
       <c r="E23" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2629996802574329E-2</v>
+        <v>0.26533179078015823</v>
       </c>
       <c r="F23" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8968939945200332E-2</v>
+        <v>-0.13037735976502346</v>
       </c>
       <c r="G23" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23829732562587441</v>
+        <v>-0.24841959778316669</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="C24" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5187,9 +5248,7 @@
   </sheetPr>
   <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26"/>
   <cols>
@@ -5200,34 +5259,34 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="C6" s="1">
         <f t="shared" ref="C6:G16" ca="1" si="0">_xlfn.NORM.INV(RAND(),8%,15%)</f>
-        <v>-9.5917607364591484E-4</v>
+        <v>0.19027357881570822</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1852880661445966E-2</v>
+        <v>0.13548673611546669</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11197976571075388</v>
+        <v>0.12347786228848931</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17171725849679445</v>
+        <v>2.391532915794034E-2</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17889707371380142</v>
+        <v>0.22626163406351252</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -5236,23 +5295,23 @@
       </c>
       <c r="C7" s="46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21486600119186661</v>
+        <v>9.7663989111827831E-2</v>
       </c>
       <c r="D7" s="46">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.2774084022211625E-2</v>
+        <v>0.27839329097791349</v>
       </c>
       <c r="E7" s="46">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.13089150508961539</v>
+        <v>6.2752930886789807E-2</v>
       </c>
       <c r="F7" s="46">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6612090203554296E-2</v>
+        <v>1.53044746479922E-2</v>
       </c>
       <c r="G7" s="46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18746066982377785</v>
+        <v>0.33552833712031027</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -5261,23 +5320,23 @@
       </c>
       <c r="C8" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17968028030950228</v>
+        <v>6.3774800735771534E-2</v>
       </c>
       <c r="D8" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27386610796928113</v>
+        <v>6.0354598618389127E-3</v>
       </c>
       <c r="E8" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4404163039428419E-2</v>
+        <v>0.12626066461649599</v>
       </c>
       <c r="F8" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.15364546192635414</v>
+        <v>8.2177979771141801E-3</v>
       </c>
       <c r="G8" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11758919926887781</v>
+        <v>0.34788620236693207</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -5286,23 +5345,23 @@
       </c>
       <c r="C9" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4353019837338946E-2</v>
+        <v>-0.12327384173659446</v>
       </c>
       <c r="D9" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11331321275289244</v>
+        <v>0.17573041453398913</v>
       </c>
       <c r="E9" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16634505687165713</v>
+        <v>0.22716047842758741</v>
       </c>
       <c r="F9" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.9213391322962008E-2</v>
+        <v>0.19744427824584734</v>
       </c>
       <c r="G9" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2121760198120431E-2</v>
+        <v>0.16693810980129864</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -5311,23 +5370,23 @@
       </c>
       <c r="C10" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10232097352292113</v>
+        <v>5.9654063652841538E-2</v>
       </c>
       <c r="D10" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27105247659901788</v>
+        <v>0.35092104352139253</v>
       </c>
       <c r="E10" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20611792620556757</v>
+        <v>1.2440290097053719E-2</v>
       </c>
       <c r="F10" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0060593113814928E-2</v>
+        <v>4.901494483008776E-2</v>
       </c>
       <c r="G10" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20786935632589182</v>
+        <v>-7.9897801901606322E-2</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -5336,23 +5395,23 @@
       </c>
       <c r="C11" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9904865645166256E-2</v>
+        <v>-0.21798519679686695</v>
       </c>
       <c r="D11" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22143585630939222</v>
+        <v>-0.20703528543059008</v>
       </c>
       <c r="E11" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3962629189329068E-2</v>
+        <v>-2.5186759477543091E-2</v>
       </c>
       <c r="F11" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.31982143578232908</v>
+        <v>5.7293961907042709E-2</v>
       </c>
       <c r="G11" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22678556035453806</v>
+        <v>6.0790444009711717E-2</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -5361,23 +5420,23 @@
       </c>
       <c r="C12" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6038673827919789E-2</v>
+        <v>0.28582375832775098</v>
       </c>
       <c r="D12" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.246185081771315E-3</v>
+        <v>0.20435829127695576</v>
       </c>
       <c r="E12" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6403890623557083E-2</v>
+        <v>0.17587365999954857</v>
       </c>
       <c r="F12" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10288713037408651</v>
+        <v>-0.17801803226563623</v>
       </c>
       <c r="G12" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20507203355540338</v>
+        <v>6.851584739666676E-2</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -5386,23 +5445,23 @@
       </c>
       <c r="C13" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.4813268759332883E-2</v>
+        <v>-0.16290097235854861</v>
       </c>
       <c r="D13" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39343276884553252</v>
+        <v>-6.0929251162804718E-2</v>
       </c>
       <c r="E13" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1227841598624495</v>
+        <v>9.0099239868949632E-2</v>
       </c>
       <c r="F13" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6033359076348969E-2</v>
+        <v>0.16974348047530186</v>
       </c>
       <c r="G13" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17556884110712692</v>
+        <v>8.5488538033444278E-3</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -5411,23 +5470,23 @@
       </c>
       <c r="C14" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.8760903061450074E-2</v>
+        <v>1.8904855584702666E-2</v>
       </c>
       <c r="D14" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19787842844184278</v>
+        <v>-7.4529489572384186E-2</v>
       </c>
       <c r="E14" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18717104367859203</v>
+        <v>0.10125018372450745</v>
       </c>
       <c r="F14" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2900700811676776E-2</v>
+        <v>0.11667045775991783</v>
       </c>
       <c r="G14" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4063933188326552E-2</v>
+        <v>1.4208169876731638E-2</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -5436,23 +5495,23 @@
       </c>
       <c r="C15" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.24382079329270334</v>
+        <v>2.8015261589818971E-2</v>
       </c>
       <c r="D15" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1768706584107626</v>
+        <v>0.24261723102871652</v>
       </c>
       <c r="E15" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17024983550004716</v>
+        <v>0.12989917754615121</v>
       </c>
       <c r="F15" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.37190268876316779</v>
+        <v>-0.13233368829888242</v>
       </c>
       <c r="G15" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5643365904123578E-2</v>
+        <v>8.2884951623824754E-3</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -5461,40 +5520,40 @@
       </c>
       <c r="C16" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50251666057261235</v>
+        <v>0.13108959517538191</v>
       </c>
       <c r="D16" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.7846560326793025E-2</v>
+        <v>0.16128904896426358</v>
       </c>
       <c r="E16" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0064799103489028E-2</v>
+        <v>-6.1040290048484089E-2</v>
       </c>
       <c r="F16" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5536354074940495E-2</v>
+        <v>0.35586204657936238</v>
       </c>
       <c r="G16" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.10711287843447874</v>
+        <v>0.25566927450884203</v>
       </c>
     </row>
     <row r="17" spans="3:7">
       <c r="C17" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5769,32 +5828,32 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -5817,7 +5876,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -5831,7 +5890,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B2:E25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5842,75 +5901,80 @@
     <col min="4" max="16384" width="10.83203125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="1" spans="1:5">
+      <c r="A1" s="66" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="B2" s="31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="31" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="31" t="s">
+    <row r="5" spans="1:5">
+      <c r="B5" s="31" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="31" t="s">
+    <row r="6" spans="1:5">
+      <c r="B6" s="31" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="31" t="s">
+    <row r="7" spans="1:5">
+      <c r="B7" s="31" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="31" t="s">
+    <row r="8" spans="1:5">
+      <c r="C8" s="31" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="31" t="s">
+    <row r="9" spans="1:5">
+      <c r="C9" s="31" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
-      <c r="C8" s="31" t="s">
+    <row r="10" spans="1:5">
+      <c r="C10" s="31" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
-      <c r="C9" s="31" t="s">
+    <row r="11" spans="1:5">
+      <c r="C11" s="31" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
-      <c r="C10" s="31" t="s">
+    <row r="13" spans="1:5">
+      <c r="B13" s="47" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="C11" s="31" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="47" t="s">
-        <v>252</v>
       </c>
       <c r="C13" s="47"/>
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="1:5">
       <c r="B14" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="49"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="1:5">
       <c r="B15" s="47">
         <v>-3</v>
       </c>
@@ -5920,7 +5984,7 @@
       <c r="D15" s="47"/>
       <c r="E15" s="47"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="1:5">
       <c r="B16" s="47">
         <v>-2</v>
       </c>
@@ -5988,7 +6052,7 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="47" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
@@ -5997,7 +6061,7 @@
     <row r="24" spans="2:5">
       <c r="B24" s="47"/>
       <c r="C24" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D24" s="51"/>
       <c r="E24" s="51"/>
@@ -6011,8 +6075,11 @@
       <c r="E25" s="47"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{D48241FE-6BA4-994A-A017-EA9A6DF18C8E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6036,65 +6103,65 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="C4" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="C5" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="C6" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="C7" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="C8" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="C9" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="31">
       <c r="C10" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="C11" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31">
       <c r="C12" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="C14" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6103,7 +6170,7 @@
         <v>1.9990772149717688</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6112,7 +6179,7 @@
         <v>0.97724986805182079</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -6143,31 +6210,31 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C1" s="27"/>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="C6" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6175,27 +6242,27 @@
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="C12" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="C13" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="C14" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6217,9 +6284,7 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:J13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26"/>
   <cols>
@@ -6230,38 +6295,38 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="57" customFormat="1">
       <c r="C2" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="G2" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="H2" s="57" t="s">
         <v>299</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="I2" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="J2" s="57" t="s">
         <v>301</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>302</v>
-      </c>
-      <c r="J2" s="57" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -6577,7 +6642,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H14" s="1">
         <f>SUM(H3:H13)</f>
@@ -6913,7 +6978,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6924,22 +6989,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="D5" s="31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="C6" s="35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
@@ -6947,18 +7012,18 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="32"/>
@@ -6973,25 +7038,33 @@
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" s="31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" s="31" t="s">
-        <v>208</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="66" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C17" r:id="rId1" xr:uid="{003531E2-F026-0443-AEE6-78D496DA5527}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7012,17 +7085,17 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="D5" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="C6" s="36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
@@ -7030,18 +7103,18 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="32"/>
@@ -7056,17 +7129,17 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
